--- a/Luban/LubanConfig/Datas/#EnemyData.xlsx
+++ b/Luban/LubanConfig/Datas/#EnemyData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learn\tower-defense-tengine-demo\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D58C00-8DFA-4980-ABD3-688CE6D4F177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125197F4-1619-423B-9E9C-812EADE8C6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34980" yWindow="2985" windowWidth="19680" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sped</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AddEnergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +239,10 @@
   </si>
   <si>
     <t>EntityEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,29 +571,29 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,16 +634,16 @@
         <v>42</v>
       </c>
       <c r="N1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
       <c r="P1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -669,7 +669,7 @@
         <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -693,7 +693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -769,28 +769,28 @@
         <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -834,10 +834,10 @@
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>102</v>
       </c>
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>103</v>
       </c>
@@ -928,10 +928,10 @@
         <v>4</v>
       </c>
       <c r="P7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>104</v>
       </c>
@@ -975,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>105</v>
       </c>
@@ -1022,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>106</v>
       </c>
@@ -1069,10 +1069,10 @@
         <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>107</v>
       </c>
@@ -1116,10 +1116,10 @@
         <v>4</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>108</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/LubanConfig/Datas/#EnemyData.xlsx
+++ b/Luban/LubanConfig/Datas/#EnemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Project\TowerDefenseDemo\TowerDefense-TEngine-Demo\Luban\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125197F4-1619-423B-9E9C-812EADE8C6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CEDF0-A0C8-4E83-A93F-2D9B262D7413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21390" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,22 @@
   </si>
   <si>
     <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹脚本类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityProjectileHitscanLogic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -586,14 +602,15 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,25 +642,28 @@
         <v>39</v>
       </c>
       <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>43</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -675,25 +695,28 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
       </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
       </c>
       <c r="O2" t="s">
         <v>31</v>
       </c>
       <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -739,8 +762,11 @@
       <c r="P3" t="s">
         <v>8</v>
       </c>
+      <c r="Q3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -772,25 +798,28 @@
         <v>50</v>
       </c>
       <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
         <v>49</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>46</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>45</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>44</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>101</v>
       </c>
@@ -818,26 +847,29 @@
       <c r="J5">
         <v>1011</v>
       </c>
-      <c r="K5">
-        <v>1</v>
+      <c r="K5" t="s">
+        <v>58</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="M5" t="b">
+      <c r="N5" t="b">
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>4.8</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>102</v>
       </c>
@@ -865,26 +897,29 @@
       <c r="J6">
         <v>1011</v>
       </c>
-      <c r="K6">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>58</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="M6" t="b">
+      <c r="N6" t="b">
         <v>0</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
       </c>
       <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>103</v>
       </c>
@@ -912,26 +947,29 @@
       <c r="J7">
         <v>1011</v>
       </c>
-      <c r="K7">
-        <v>1</v>
+      <c r="K7" t="s">
+        <v>58</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="M7" t="b">
+      <c r="N7" t="b">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>4</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>104</v>
       </c>
@@ -959,26 +997,29 @@
       <c r="J8">
         <v>1011</v>
       </c>
-      <c r="K8">
-        <v>1</v>
+      <c r="K8" t="s">
+        <v>58</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <v>6</v>
       </c>
-      <c r="M8" t="b">
+      <c r="N8" t="b">
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1.2</v>
       </c>
-      <c r="O8">
-        <v>8</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>105</v>
       </c>
@@ -1006,26 +1047,29 @@
       <c r="J9">
         <v>1011</v>
       </c>
-      <c r="K9">
-        <v>1</v>
+      <c r="K9" t="s">
+        <v>58</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="M9" t="b">
+      <c r="N9" t="b">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>4.8</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>106</v>
       </c>
@@ -1053,26 +1097,29 @@
       <c r="J10">
         <v>1011</v>
       </c>
-      <c r="K10">
-        <v>1</v>
+      <c r="K10" t="s">
+        <v>58</v>
       </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="M10" t="b">
+      <c r="N10" t="b">
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>4</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>107</v>
       </c>
@@ -1100,26 +1147,29 @@
       <c r="J11">
         <v>1011</v>
       </c>
-      <c r="K11">
-        <v>1</v>
+      <c r="K11" t="s">
+        <v>58</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>6</v>
       </c>
-      <c r="M11" t="b">
+      <c r="N11" t="b">
         <v>0</v>
-      </c>
-      <c r="N11">
-        <v>4</v>
       </c>
       <c r="O11">
         <v>4</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>108</v>
       </c>
@@ -1147,22 +1197,25 @@
       <c r="J12">
         <v>1011</v>
       </c>
-      <c r="K12">
-        <v>1</v>
+      <c r="K12" t="s">
+        <v>58</v>
       </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="M12" t="b">
+      <c r="N12" t="b">
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1.2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>16</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>53</v>
       </c>
     </row>
